--- a/biology/Botanique/Morinaceae/Morinaceae.xlsx
+++ b/biology/Botanique/Morinaceae/Morinaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La famille des Morinacées est une famille de plantes dicotylédones.
 Ce sont des plantes herbacées, pérennes, à feuilles opposées, des régions tempérées, originaires du sud est de l'Europe à la Chine.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre Morina donné en l'honneur du botaniste français Louis Morin.
 </t>
@@ -543,11 +557,13 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans la classification classique de Cronquist (1981)[1] cette famille n'existait pas et ses genres étaient inclus dans la famille des Dipsacacées.
-En classification phylogénétique APG II (2003)[2] la famille est optionnelle, et ces plantes peuvent aussi être incluses dans les Caprifoliacées. La famille comprend 13 à 17 espèces réparties en 1-3 genres.
-En classification phylogénétique APG III (2009)[3] cette famille est invalide et ses genres sont incorporés dans la famille Caprifoliaceae.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la classification classique de Cronquist (1981) cette famille n'existait pas et ses genres étaient inclus dans la famille des Dipsacacées.
+En classification phylogénétique APG II (2003) la famille est optionnelle, et ces plantes peuvent aussi être incluses dans les Caprifoliacées. La famille comprend 13 à 17 espèces réparties en 1-3 genres.
+En classification phylogénétique APG III (2009) cette famille est invalide et ses genres sont incorporés dans la famille Caprifoliaceae.
 </t>
         </is>
       </c>
@@ -576,11 +592,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (19 mai 2010) :
 Morina (en) L.
-Selon DELTA Angio           (19 mai 2010)[5] :
+Selon DELTA Angio           (19 mai 2010) :
 Acanthocalyx (incluse dans Morina par Angiosperm Phylogeny Website)
 Cryptothladia (es) (incluse dans Morina par Angiosperm Phylogeny Website)
 Morina (en)</t>
